--- a/archive/tables.xlsx
+++ b/archive/tables.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Biology</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Note. All times given are medians.</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -84,12 +81,21 @@
   </si>
   <si>
     <t>Conflict of interest</t>
+  </si>
+  <si>
+    <t>Estimate (review)</t>
+  </si>
+  <si>
+    <t>Estimate (production)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,12 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,166 +655,225 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:B19"/>
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="5">
+        <v>4.1873790849999999</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.2495693188519699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>4.1873790849999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="5">
+        <v>1.885353E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.9158296383032896E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>1.885353E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="5">
+        <v>-7.2180000000000002E-6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-1.4879271769975999E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>-7.2180000000000002E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="5">
+        <v>-9.3400899999999997E-4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.3176025642281702E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>-9.3400899999999997E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="5">
+        <v>-1.0995199999999999E-4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-1.11718223359496E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>-1.0995199999999999E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>-1.899822E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>4.9118132407661597E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2004</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.68772862099999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>0.101646745352951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2005</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.73865381699999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>-0.12942827953389399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2006</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.69365071099999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>-0.109288525365644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0.54891641599999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>-0.46095013149497499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2008</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0.61999715600000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>-0.57019108715497102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2009</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0.59294335099999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>-0.56629724829058503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2010</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0.65820246999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>-0.66378718583387797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>0.65243934999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>-0.56771495041387299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2012</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>0.73469631199999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>-0.47268199440374897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2013</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>0.73683272899999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>-0.37085600483803999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2014</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>0.77307768399999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>-0.53778005058935596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>0.84419351200000003</v>
+      </c>
+      <c r="C19" s="5">
+        <v>-0.24988634171385199</v>
       </c>
     </row>
   </sheetData>

--- a/archive/tables.xlsx
+++ b/archive/tables.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="review journals" sheetId="3" r:id="rId3"/>
+    <sheet name="production journals" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Biology</t>
   </si>
@@ -87,6 +88,30 @@
   </si>
   <si>
     <t>Estimate (production)</t>
+  </si>
+  <si>
+    <t>plos biology</t>
+  </si>
+  <si>
+    <t>plos medicine</t>
+  </si>
+  <si>
+    <t>plos computational biology</t>
+  </si>
+  <si>
+    <t>plos genetics</t>
+  </si>
+  <si>
+    <t>plos pathogens</t>
+  </si>
+  <si>
+    <t>plos clinical trials</t>
+  </si>
+  <si>
+    <t>plos one</t>
+  </si>
+  <si>
+    <t>plos neglected tropical diseases</t>
   </si>
 </sst>
 </file>
@@ -94,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +682,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,10 +708,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="5">
-        <v>4.1873790849999999</v>
+        <v>4.1837035513879002</v>
       </c>
       <c r="C2" s="5">
-        <v>4.2495693188519699</v>
+        <v>4.2467746921629903</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,10 +719,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="5">
-        <v>1.885353E-3</v>
+        <v>1.7561075617004999E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>5.9158296383032896E-3</v>
+        <v>5.8184525587785798E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,10 +730,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="5">
-        <v>-7.2180000000000002E-6</v>
+        <v>-5.2515492523396E-6</v>
       </c>
       <c r="C4" s="5">
-        <v>-1.4879271769975999E-5</v>
+        <v>-1.44508154266043E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="5">
-        <v>-9.3400899999999997E-4</v>
+        <v>-8.3556745619642304E-4</v>
       </c>
       <c r="C5" s="5">
-        <v>4.3176025642281702E-5</v>
+        <v>1.2486393967555E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +752,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>-1.0995199999999999E-4</v>
+        <v>-1.0415918698416799E-4</v>
       </c>
       <c r="C6" s="5">
-        <v>-1.11718223359496E-4</v>
+        <v>-1.05762492203507E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +763,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>-1.899822E-2</v>
+        <v>-1.7130484666844401E-2</v>
       </c>
       <c r="C7" s="5">
-        <v>4.9118132407661597E-3</v>
+        <v>5.5098036371136498E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +774,10 @@
         <v>2004</v>
       </c>
       <c r="B8" s="5">
-        <v>0.68772862099999998</v>
+        <v>0.68757805489498502</v>
       </c>
       <c r="C8" s="5">
-        <v>0.101646745352951</v>
+        <v>0.101550081965625</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +785,10 @@
         <v>2005</v>
       </c>
       <c r="B9" s="5">
-        <v>0.73865381699999999</v>
+        <v>0.74030906903693705</v>
       </c>
       <c r="C9" s="5">
-        <v>-0.12942827953389399</v>
+        <v>-0.12891308721421399</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +796,10 @@
         <v>2006</v>
       </c>
       <c r="B10" s="5">
-        <v>0.69365071099999998</v>
+        <v>0.69578801076558705</v>
       </c>
       <c r="C10" s="5">
-        <v>-0.109288525365644</v>
+        <v>-0.108298640572583</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +807,10 @@
         <v>2007</v>
       </c>
       <c r="B11" s="5">
-        <v>0.54891641599999996</v>
+        <v>0.55103798854611497</v>
       </c>
       <c r="C11" s="5">
-        <v>-0.46095013149497499</v>
+        <v>-0.45996086540646403</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,10 +818,10 @@
         <v>2008</v>
       </c>
       <c r="B12" s="5">
-        <v>0.61999715600000005</v>
+        <v>0.622245462895054</v>
       </c>
       <c r="C12" s="5">
-        <v>-0.57019108715497102</v>
+        <v>-0.56911000369930498</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,10 +829,10 @@
         <v>2009</v>
       </c>
       <c r="B13" s="5">
-        <v>0.59294335099999995</v>
+        <v>0.59525234695644502</v>
       </c>
       <c r="C13" s="5">
-        <v>-0.56629724829058503</v>
+        <v>-0.56514207894958401</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +840,10 @@
         <v>2010</v>
       </c>
       <c r="B14" s="5">
-        <v>0.65820246999999998</v>
+        <v>0.66045451094988195</v>
       </c>
       <c r="C14" s="5">
-        <v>-0.66378718583387797</v>
+        <v>-0.662659738547414</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +851,10 @@
         <v>2011</v>
       </c>
       <c r="B15" s="5">
-        <v>0.65243934999999997</v>
+        <v>0.65462678295883603</v>
       </c>
       <c r="C15" s="5">
-        <v>-0.56771495041387299</v>
+        <v>-0.56665233228915401</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,10 +862,10 @@
         <v>2012</v>
       </c>
       <c r="B16" s="5">
-        <v>0.73469631199999996</v>
+        <v>0.73687320561724901</v>
       </c>
       <c r="C16" s="5">
-        <v>-0.47268199440374897</v>
+        <v>-0.47161251744920302</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,10 +873,10 @@
         <v>2013</v>
       </c>
       <c r="B17" s="5">
-        <v>0.73683272899999996</v>
+        <v>0.73887393351756403</v>
       </c>
       <c r="C17" s="5">
-        <v>-0.37085600483803999</v>
+        <v>-0.36991184506437003</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,10 +884,10 @@
         <v>2014</v>
       </c>
       <c r="B18" s="5">
-        <v>0.77307768399999999</v>
+        <v>0.77532276872839001</v>
       </c>
       <c r="C18" s="5">
-        <v>-0.53778005058935596</v>
+        <v>-0.53661168268703996</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,10 +895,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="5">
-        <v>0.84419351200000003</v>
+        <v>0.84229233058263997</v>
       </c>
       <c r="C19" s="5">
-        <v>-0.24988634171385199</v>
+        <v>-0.296427016924381</v>
       </c>
     </row>
   </sheetData>
@@ -885,14 +910,975 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="A1:I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>4.1086670721790002</v>
+      </c>
+      <c r="C2">
+        <v>4.4998661632416104</v>
+      </c>
+      <c r="D2">
+        <v>4.8914923815683196</v>
+      </c>
+      <c r="E2">
+        <v>4.7637445481950804</v>
+      </c>
+      <c r="F2">
+        <v>4.826705523987</v>
+      </c>
+      <c r="G2">
+        <v>5.19953756207099</v>
+      </c>
+      <c r="H2">
+        <v>3.61967794905381</v>
+      </c>
+      <c r="I2">
+        <v>4.7478906046429898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1.7733082933395099E-3</v>
+      </c>
+      <c r="C3">
+        <v>6.0374367554986497E-4</v>
+      </c>
+      <c r="D3">
+        <v>-2.8889612229268799E-3</v>
+      </c>
+      <c r="E3">
+        <v>8.9406951801178098E-4</v>
+      </c>
+      <c r="F3">
+        <v>7.2880068693771697E-3</v>
+      </c>
+      <c r="G3">
+        <v>-3.5358892044214901E-3</v>
+      </c>
+      <c r="H3">
+        <v>4.1900708249277899E-4</v>
+      </c>
+      <c r="I3">
+        <v>5.4201311591783596E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>-1.1566945223014401E-5</v>
+      </c>
+      <c r="C4">
+        <v>-2.5077496191389999E-5</v>
+      </c>
+      <c r="D4">
+        <v>-5.4055128992283401E-4</v>
+      </c>
+      <c r="E4">
+        <v>-6.9593064898813697E-6</v>
+      </c>
+      <c r="F4">
+        <v>-4.8918012713596005E-4</v>
+      </c>
+      <c r="G4">
+        <v>-1.1178133915250099E-3</v>
+      </c>
+      <c r="H4">
+        <v>3.7525533258670698E-6</v>
+      </c>
+      <c r="I4">
+        <v>-1.17092703880159E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2.5862870746676198E-3</v>
+      </c>
+      <c r="C5">
+        <v>9.2513754695218897E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.4486148063993099E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.0522175147156801E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.29255366317035E-4</v>
+      </c>
+      <c r="G5">
+        <v>5.5243251214262303E-3</v>
+      </c>
+      <c r="H5">
+        <v>-7.2116822109943304E-4</v>
+      </c>
+      <c r="I5">
+        <v>-5.2007298530226502E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>-1.5998303734911801E-4</v>
+      </c>
+      <c r="C6">
+        <v>-1.9598649205461799E-4</v>
+      </c>
+      <c r="D6">
+        <v>-3.3379747540097899E-4</v>
+      </c>
+      <c r="E6">
+        <v>-3.5804061273725602E-4</v>
+      </c>
+      <c r="F6">
+        <v>-2.76445850648605E-4</v>
+      </c>
+      <c r="G6">
+        <v>-6.6794826464638198E-4</v>
+      </c>
+      <c r="H6">
+        <v>-4.9241148543506602E-5</v>
+      </c>
+      <c r="I6">
+        <v>4.4309215292146102E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>6.8507205394176497E-3</v>
+      </c>
+      <c r="C7">
+        <v>3.7111707571443497E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.1308127026521702E-3</v>
+      </c>
+      <c r="E7">
+        <v>-5.6215687938858698E-3</v>
+      </c>
+      <c r="F7">
+        <v>-6.2765455345850693E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.11237163370617501</v>
+      </c>
+      <c r="H7">
+        <v>-8.6235055657439292E-3</v>
+      </c>
+      <c r="I7">
+        <v>3.8752412980982497E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>0.71416647322153504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>0.90083747471523101</v>
+      </c>
+      <c r="C9">
+        <v>0.60828933914382799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>0.91110409017169802</v>
+      </c>
+      <c r="C10">
+        <v>0.80585659228110396</v>
+      </c>
+      <c r="D10">
+        <v>0.24392376105067501</v>
+      </c>
+      <c r="E10">
+        <v>0.23835780012687399</v>
+      </c>
+      <c r="F10">
+        <v>0.18868361076238699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>1.1619015868757101</v>
+      </c>
+      <c r="C11">
+        <v>0.880396607655762</v>
+      </c>
+      <c r="D11">
+        <v>0.34436582420480899</v>
+      </c>
+      <c r="E11">
+        <v>0.18014906466060099</v>
+      </c>
+      <c r="F11">
+        <v>0.18193615861215501</v>
+      </c>
+      <c r="G11">
+        <v>0.32440589153362998</v>
+      </c>
+      <c r="H11">
+        <v>0.71842322349120602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>1.0640565430684099</v>
+      </c>
+      <c r="C12">
+        <v>0.91740207821410902</v>
+      </c>
+      <c r="D12">
+        <v>0.48831467997533401</v>
+      </c>
+      <c r="E12">
+        <v>0.38416839832783201</v>
+      </c>
+      <c r="F12">
+        <v>0.362248550148076</v>
+      </c>
+      <c r="H12">
+        <v>0.94247005609239398</v>
+      </c>
+      <c r="I12">
+        <v>0.35310430073497301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>1.1438379125970799</v>
+      </c>
+      <c r="C13">
+        <v>1.1257123050853399</v>
+      </c>
+      <c r="D13">
+        <v>0.40946425428475802</v>
+      </c>
+      <c r="E13">
+        <v>0.33966731262893501</v>
+      </c>
+      <c r="F13">
+        <v>0.33844528021542097</v>
+      </c>
+      <c r="H13">
+        <v>0.97121349392426604</v>
+      </c>
+      <c r="I13">
+        <v>0.15707668913950801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>1.09081214072333</v>
+      </c>
+      <c r="C14">
+        <v>0.82455794363617596</v>
+      </c>
+      <c r="D14">
+        <v>0.45993464915175297</v>
+      </c>
+      <c r="E14">
+        <v>0.50865582550249899</v>
+      </c>
+      <c r="F14">
+        <v>0.419829914797758</v>
+      </c>
+      <c r="H14">
+        <v>1.07517793976339</v>
+      </c>
+      <c r="I14">
+        <v>0.27607344473205098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>1.1023213139495101</v>
+      </c>
+      <c r="C15">
+        <v>0.96283648685513101</v>
+      </c>
+      <c r="D15">
+        <v>0.37344064796984799</v>
+      </c>
+      <c r="E15">
+        <v>0.385337318812006</v>
+      </c>
+      <c r="F15">
+        <v>0.30153741757604002</v>
+      </c>
+      <c r="H15">
+        <v>1.1353854214143599</v>
+      </c>
+      <c r="I15">
+        <v>0.244568922006699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>1.0641791371903999</v>
+      </c>
+      <c r="C16">
+        <v>1.05903540282938</v>
+      </c>
+      <c r="D16">
+        <v>0.337460648484946</v>
+      </c>
+      <c r="E16">
+        <v>0.374138693532586</v>
+      </c>
+      <c r="F16">
+        <v>0.27594369103080901</v>
+      </c>
+      <c r="H16">
+        <v>1.2449934086019701</v>
+      </c>
+      <c r="I16">
+        <v>0.23670862268128501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>1.1027337761491101</v>
+      </c>
+      <c r="C17">
+        <v>0.82279665595214502</v>
+      </c>
+      <c r="D17">
+        <v>0.39491125613533001</v>
+      </c>
+      <c r="E17">
+        <v>0.46179212384523599</v>
+      </c>
+      <c r="F17">
+        <v>0.35264638906144702</v>
+      </c>
+      <c r="H17">
+        <v>1.2385898105538</v>
+      </c>
+      <c r="I17">
+        <v>0.26040363808458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>0.94374976590226201</v>
+      </c>
+      <c r="C18">
+        <v>0.81804254557047695</v>
+      </c>
+      <c r="D18">
+        <v>0.38747317471436599</v>
+      </c>
+      <c r="E18">
+        <v>0.46504302307232898</v>
+      </c>
+      <c r="F18">
+        <v>0.32305292797084101</v>
+      </c>
+      <c r="H18">
+        <v>1.28836918621045</v>
+      </c>
+      <c r="I18">
+        <v>0.21316608840388601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>1.0228539138411801</v>
+      </c>
+      <c r="C19">
+        <v>0.95074201291071203</v>
+      </c>
+      <c r="D19">
+        <v>0.30138177471456501</v>
+      </c>
+      <c r="E19">
+        <v>0.37579299853507298</v>
+      </c>
+      <c r="F19">
+        <v>0.255746703939778</v>
+      </c>
+      <c r="H19">
+        <v>1.3823721507732201</v>
+      </c>
+      <c r="I19">
+        <v>0.16975219101203101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="A1:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>4.0749772996418701</v>
+      </c>
+      <c r="C2">
+        <v>4.2298827904012803</v>
+      </c>
+      <c r="D2">
+        <v>3.7405894648695499</v>
+      </c>
+      <c r="E2">
+        <v>3.9345520226327899</v>
+      </c>
+      <c r="F2">
+        <v>3.9089933526173</v>
+      </c>
+      <c r="G2">
+        <v>3.8520382187931101</v>
+      </c>
+      <c r="H2">
+        <v>4.1390162582397902</v>
+      </c>
+      <c r="I2">
+        <v>4.6195519677972197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>-6.2518257191024502E-4</v>
+      </c>
+      <c r="C3">
+        <v>1.8525148463626099E-4</v>
+      </c>
+      <c r="D3">
+        <v>1.5138495160587999E-3</v>
+      </c>
+      <c r="E3">
+        <v>3.0605023570811499E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.73230511418106E-3</v>
+      </c>
+      <c r="G3">
+        <v>5.1837320601509501E-3</v>
+      </c>
+      <c r="H3">
+        <v>5.7515392815622301E-3</v>
+      </c>
+      <c r="I3">
+        <v>6.9150396314741002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>-1.20459714620977E-5</v>
+      </c>
+      <c r="C4">
+        <v>-8.6755743324142305E-6</v>
+      </c>
+      <c r="D4">
+        <v>4.78057387274404E-4</v>
+      </c>
+      <c r="E4">
+        <v>-5.3886724926006399E-6</v>
+      </c>
+      <c r="F4">
+        <v>7.7435838220559999E-5</v>
+      </c>
+      <c r="G4">
+        <v>6.7437955455131298E-5</v>
+      </c>
+      <c r="H4">
+        <v>-1.66984570595849E-5</v>
+      </c>
+      <c r="I4">
+        <v>1.57882972829327E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5.0356699075229498E-5</v>
+      </c>
+      <c r="C5">
+        <v>5.15104907247919E-4</v>
+      </c>
+      <c r="D5">
+        <v>5.83187583509385E-4</v>
+      </c>
+      <c r="E5">
+        <v>4.0977198221123798E-4</v>
+      </c>
+      <c r="F5">
+        <v>-7.2951213254386006E-5</v>
+      </c>
+      <c r="G5">
+        <v>-4.85110033060896E-4</v>
+      </c>
+      <c r="H5">
+        <v>4.54054495591844E-4</v>
+      </c>
+      <c r="I5">
+        <v>-1.9020924785236702E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>-3.6929682077317903E-5</v>
+      </c>
+      <c r="C6">
+        <v>5.6760177744801697E-7</v>
+      </c>
+      <c r="D6">
+        <v>-1.05724150269655E-4</v>
+      </c>
+      <c r="E6">
+        <v>-3.6106973617734702E-5</v>
+      </c>
+      <c r="F6">
+        <v>1.6921515666454401E-5</v>
+      </c>
+      <c r="G6">
+        <v>8.1622946401990303E-5</v>
+      </c>
+      <c r="H6">
+        <v>-7.9009695655261195E-5</v>
+      </c>
+      <c r="I6">
+        <v>2.26735098615349E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0.106383125284829</v>
+      </c>
+      <c r="C7">
+        <v>8.4793421560487494E-3</v>
+      </c>
+      <c r="D7">
+        <v>-1.8566265790972099E-2</v>
+      </c>
+      <c r="E7">
+        <v>-5.0357804854858999E-3</v>
+      </c>
+      <c r="F7">
+        <v>-1.0707739189276699E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.28053800033258E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.16190911004055E-2</v>
+      </c>
+      <c r="I7">
+        <v>8.9911658661984608E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>9.5651180322390297E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>-2.9196435490068499E-2</v>
+      </c>
+      <c r="C9">
+        <v>-2.8305386750253798E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>-6.57951904781587E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.209469072137384</v>
+      </c>
+      <c r="D10">
+        <v>0.18075972139254501</v>
+      </c>
+      <c r="E10">
+        <v>3.7415540933052001E-2</v>
+      </c>
+      <c r="F10">
+        <v>-0.12767050202614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>3.8239471634867198E-2</v>
+      </c>
+      <c r="C11">
+        <v>-0.20139287241364001</v>
+      </c>
+      <c r="D11">
+        <v>0.23811074027976201</v>
+      </c>
+      <c r="E11">
+        <v>-2.2666137771820499E-2</v>
+      </c>
+      <c r="F11">
+        <v>-1.0032585839546001E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.13827046265680101</v>
+      </c>
+      <c r="H11">
+        <v>-0.66365268416637901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>-0.247884000336797</v>
+      </c>
+      <c r="C12">
+        <v>-0.27063547301055102</v>
+      </c>
+      <c r="D12">
+        <v>0.102384223959412</v>
+      </c>
+      <c r="E12">
+        <v>-0.30070284563259297</v>
+      </c>
+      <c r="F12">
+        <v>-0.40767783358599302</v>
+      </c>
+      <c r="H12">
+        <v>-0.52455618669224102</v>
+      </c>
+      <c r="I12">
+        <v>-0.97743012829139597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>-0.271627244490668</v>
+      </c>
+      <c r="C13">
+        <v>-0.40329088243163702</v>
+      </c>
+      <c r="D13">
+        <v>-8.4236691971598998E-2</v>
+      </c>
+      <c r="E13">
+        <v>-0.46606475525979402</v>
+      </c>
+      <c r="F13">
+        <v>-0.55369398702256101</v>
+      </c>
+      <c r="H13">
+        <v>-0.44162707595052503</v>
+      </c>
+      <c r="I13">
+        <v>-1.1837959641123399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>-0.31608038910325198</v>
+      </c>
+      <c r="C14">
+        <v>-0.509234163242969</v>
+      </c>
+      <c r="D14">
+        <v>-0.15127980520731399</v>
+      </c>
+      <c r="E14">
+        <v>-0.40031195599316099</v>
+      </c>
+      <c r="F14">
+        <v>-0.42422062188683801</v>
+      </c>
+      <c r="H14">
+        <v>-0.59198576400427305</v>
+      </c>
+      <c r="I14">
+        <v>-0.91654443959315002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>-0.29411259243752702</v>
+      </c>
+      <c r="C15">
+        <v>-0.44482775166020899</v>
+      </c>
+      <c r="D15">
+        <v>0.37467958323485501</v>
+      </c>
+      <c r="E15">
+        <v>5.0565673423449101E-2</v>
+      </c>
+      <c r="F15">
+        <v>8.4714894261525703E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.54497324209766995</v>
+      </c>
+      <c r="I15">
+        <v>-0.68387521987667899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>-0.27385814163772898</v>
+      </c>
+      <c r="C16">
+        <v>-0.44958595824807002</v>
+      </c>
+      <c r="D16">
+        <v>0.389923687940752</v>
+      </c>
+      <c r="E16">
+        <v>0.20608370616633601</v>
+      </c>
+      <c r="F16">
+        <v>-6.1033891980795396E-3</v>
+      </c>
+      <c r="H16">
+        <v>-0.421966739967367</v>
+      </c>
+      <c r="I16">
+        <v>-0.66636253848800697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>-0.31086342462577299</v>
+      </c>
+      <c r="C17">
+        <v>-0.44846836545158297</v>
+      </c>
+      <c r="D17">
+        <v>0.35393662642138701</v>
+      </c>
+      <c r="E17">
+        <v>0.161725858304299</v>
+      </c>
+      <c r="F17">
+        <v>7.3751458767669906E-2</v>
+      </c>
+      <c r="H17">
+        <v>-0.30335121099863599</v>
+      </c>
+      <c r="I17">
+        <v>-0.78526176937286896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>-0.324874546433499</v>
+      </c>
+      <c r="C18">
+        <v>-0.45724856344110498</v>
+      </c>
+      <c r="D18">
+        <v>0.382727305576469</v>
+      </c>
+      <c r="E18">
+        <v>0.22598692114959401</v>
+      </c>
+      <c r="F18">
+        <v>-3.1462856761952498E-2</v>
+      </c>
+      <c r="H18">
+        <v>-0.48900642304659298</v>
+      </c>
+      <c r="I18">
+        <v>-0.67768399260086498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>-0.33043809186185802</v>
+      </c>
+      <c r="C19">
+        <v>-0.47842395873878801</v>
+      </c>
+      <c r="D19">
+        <v>0.58967029320619901</v>
+      </c>
+      <c r="E19">
+        <v>-0.15947403604076801</v>
+      </c>
+      <c r="F19">
+        <v>-0.27688195820473099</v>
+      </c>
+      <c r="H19">
+        <v>-0.18806361624616599</v>
+      </c>
+      <c r="I19">
+        <v>-0.88180587119859999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
